--- a/src/upload/Books Excel.xlsx
+++ b/src/upload/Books Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>KodeBuku</t>
   </si>
@@ -41,9 +41,6 @@
     <t>ISBN</t>
   </si>
   <si>
-    <t>classification</t>
-  </si>
-  <si>
     <t>edition</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>DiscriptionBook</t>
   </si>
   <si>
-    <t>PlacePublication</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>discriptionBook</t>
-  </si>
-  <si>
-    <t>placePublication</t>
   </si>
   <si>
     <t>index</t>
@@ -1061,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M1" sqref="M1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01666666666667" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1081,7 +1072,7 @@
     <col min="25" max="25" width="15.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:26">
+    <row r="1" ht="31.5" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1097,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1115,53 +1106,47 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>12222</v>
       </c>
@@ -1169,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1184,61 +1169,55 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>2001</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="N2">
-        <v>2001</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
